--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiagnosticChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D2ABE-6D0C-4A27-9603-98382ADC227B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B9C709-3F66-4F8D-83E7-45390E69DDE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Neue Transaktionen generieren</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>JSON-Repräsentationen austesten</t>
+  </si>
+  <si>
+    <t>Transaktionen korrekt verschlüsseln</t>
   </si>
 </sst>
 </file>
@@ -112,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,11 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -417,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,123 +438,132 @@
     <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiagnosticChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B9C709-3F66-4F8D-83E7-45390E69DDE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1602E-FBCC-4949-854C-CE84F39AB35A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Neue Transaktionen generieren</t>
   </si>
@@ -99,7 +100,13 @@
     <t>JSON-Repräsentationen austesten</t>
   </si>
   <si>
-    <t>Transaktionen korrekt verschlüsseln</t>
+    <t>Transaktionen korrekt signieren</t>
+  </si>
+  <si>
+    <t>Handling des ersten Publishers =&gt; Initializing Block erstellen</t>
+  </si>
+  <si>
+    <t>Chain validieren</t>
   </si>
 </sst>
 </file>
@@ -427,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,21 +473,25 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -489,81 +500,91 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiagnosticChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1602E-FBCC-4949-854C-CE84F39AB35A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E694B-1B9F-44F5-809C-9422879F3CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Neue Transaktionen generieren</t>
   </si>
@@ -103,10 +102,13 @@
     <t>Transaktionen korrekt signieren</t>
   </si>
   <si>
-    <t>Handling des ersten Publishers =&gt; Initializing Block erstellen</t>
-  </si>
-  <si>
     <t>Chain validieren</t>
+  </si>
+  <si>
+    <t>Initialen Block generieren =&gt; Erster Publisher</t>
+  </si>
+  <si>
+    <t>ParticipantHandler kontrollieren (Initial Publisher rein voten, andere Transaktionen hinzufügen und ausprobieren)</t>
   </si>
 </sst>
 </file>
@@ -434,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="104.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,96 +497,104 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiagnosticChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E694B-1B9F-44F5-809C-9422879F3CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4477A713-BAF7-444E-9FF3-A6298CA7F850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Neue Transaktionen generieren</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>ParticipantHandler kontrollieren (Initial Publisher rein voten, andere Transaktionen hinzufügen und ausprobieren)</t>
+  </si>
+  <si>
+    <t>Initialier publisher funktionert, weiter mit Test Transactions</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,93 +450,96 @@
     <col min="1" max="1" width="104.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiagnosticChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4477A713-BAF7-444E-9FF3-A6298CA7F850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1969F274-6608-41A6-B3F3-156D9B698A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Neue Transaktionen generieren</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>ParticipantHandler kontrollieren (Initial Publisher rein voten, andere Transaktionen hinzufügen und ausprobieren)</t>
-  </si>
-  <si>
-    <t>Initialier publisher funktionert, weiter mit Test Transactions</t>
   </si>
 </sst>
 </file>
@@ -439,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,156 +447,159 @@
     <col min="1" max="1" width="104.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiagnosticChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1969F274-6608-41A6-B3F3-156D9B698A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F0D50-459C-4A79-A6C2-F19CEBD1FD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiagnosticChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F0D50-459C-4A79-A6C2-F19CEBD1FD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD98630-ADA4-4B51-AB0C-7574CB1F5FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Neue Transaktionen generieren</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>ParticipantHandler kontrollieren (Initial Publisher rein voten, andere Transaktionen hinzufügen und ausprobieren)</t>
+  </si>
+  <si>
+    <t>Komplette Chain auf einen neuen Node transferieren</t>
+  </si>
+  <si>
+    <t>Delta von einem Node anfordern, wenn man zwischenzeitlich offline war</t>
+  </si>
+  <si>
+    <t>Mit Physician anmelden</t>
   </si>
 </sst>
 </file>
@@ -150,12 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -436,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,66 +552,88 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiagnosticChain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD98630-ADA4-4B51-AB0C-7574CB1F5FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A018B57F-7C0C-4ED1-9EF2-AD4AA55365D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bugliste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Neue Transaktionen generieren</t>
   </si>
@@ -67,21 +67,12 @@
     <t>Neuen Node zum Publisher wählen</t>
   </si>
   <si>
-    <t>Neuen Physician wählen</t>
-  </si>
-  <si>
     <t>Neue Daten mit Physician einspielen</t>
   </si>
   <si>
     <t>Patientenverwaltung beim Physician selbst</t>
   </si>
   <si>
-    <t>Publisher abwählen</t>
-  </si>
-  <si>
-    <t>Physician abwählen</t>
-  </si>
-  <si>
     <t>Daten aus Blockchain abfragen</t>
   </si>
   <si>
@@ -119,6 +110,33 @@
   </si>
   <si>
     <t>Mit Physician anmelden</t>
+  </si>
+  <si>
+    <t>Neuen Physician wählen - Publisher</t>
+  </si>
+  <si>
+    <t>Neuen Physician wählen - Physician</t>
+  </si>
+  <si>
+    <t>Vorhandene Physicians abfragen (vonseiten eines Physicians)</t>
+  </si>
+  <si>
+    <t>KnownNodes zwischen den Knoten Abfragen und Austauschen</t>
+  </si>
+  <si>
+    <t>Votes für Publisher können nicht mehr aufgegeben werden</t>
+  </si>
+  <si>
+    <t>Physician stürzt ab, wenn erstes Symptom, das zu einem Treatment hinzugefügt wird</t>
+  </si>
+  <si>
+    <t>Chain nach erhalt an alle KnownNodes verschicken</t>
+  </si>
+  <si>
+    <t>Vote für Publisher =&gt; Wurden schon nach einem Vote hinzugefügt?</t>
+  </si>
+  <si>
+    <t>Vote für Physician =&gt; Vote aller Publisher erforderlich?</t>
   </si>
 </sst>
 </file>
@@ -160,13 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -447,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,25 +483,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2"/>
     </row>
@@ -508,7 +525,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2"/>
     </row>
@@ -520,13 +537,13 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
     </row>
@@ -556,7 +573,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -568,19 +585,19 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2"/>
     </row>
@@ -598,46 +615,105 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAB6AF4-84EA-4F07-AFBB-A2AFBA87B480}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>